--- a/test.xlsx
+++ b/test.xlsx
@@ -8,31 +8,135 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\duan_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9893A10E-C5DA-4E31-8B4B-491FDA2AE1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D82207-A008-45E7-BA75-2F30F9B2DEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="2700" windowWidth="21600" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+  <si>
+    <t>Người lập phiếu</t>
+  </si>
+  <si>
+    <t>Đơn Vị</t>
+  </si>
+  <si>
+    <t>Người Duyệt Phiếu</t>
+  </si>
+  <si>
+    <t>Lý Do</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>gfd</t>
+  </si>
+  <si>
+    <t>Nhóm Nguyên Liệu</t>
+  </si>
+  <si>
+    <t>Tên Nguyên Liệu</t>
+  </si>
+  <si>
+    <t>Loại Vàng</t>
+  </si>
+  <si>
+    <t>Cân Nặng V+H</t>
+  </si>
+  <si>
+    <t>Cân Nặng H</t>
+  </si>
+  <si>
+    <t>Cân Nặng V</t>
+  </si>
+  <si>
+    <t>Tuổi Vàng</t>
+  </si>
+  <si>
+    <t>Tiền Mặt</t>
+  </si>
+  <si>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>Tên Kim Cương</t>
+  </si>
+  <si>
+    <t>MS GĐPNJ</t>
+  </si>
+  <si>
+    <t>MS Cạnh GIA</t>
+  </si>
+  <si>
+    <t>Kích Thước</t>
+  </si>
+  <si>
+    <t>Trọng Lượng Hột</t>
+  </si>
+  <si>
+    <t>Độ Tinh Khiết</t>
+  </si>
+  <si>
+    <t>Cấp Độ Màu</t>
+  </si>
+  <si>
+    <t>Độ Mài Bóng</t>
+  </si>
+  <si>
+    <t>Kích Thước Bán</t>
+  </si>
+  <si>
+    <t>Đơn Giá</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF393939"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,8 +159,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,26 +453,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>372</v>
+      </c>
+      <c r="K4">
+        <v>373</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>372</v>
+      </c>
+      <c r="K5">
+        <v>373</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>